--- a/artfynd/A 48539-2020.xlsx
+++ b/artfynd/A 48539-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66543149</v>
+        <v>337119</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Grannäs Ö, Ly lm</t>
+          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>609517.1953891811</v>
+        <v>612040.1440992347</v>
       </c>
       <c r="R2" t="n">
-        <v>7291738.242583656</v>
+        <v>7293206.319840582</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +768,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Inv reviderad msp</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -776,31 +781,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>23994</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>314239</v>
+        <v>91541</v>
       </c>
       <c r="B3" t="n">
-        <v>77587</v>
+        <v>89576</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>864</v>
+        <v>48</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>610504.6643166898</v>
+        <v>612043.0252919218</v>
       </c>
       <c r="R3" t="n">
-        <v>7293710.595188672</v>
+        <v>7293206.431970854</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>314240</v>
+        <v>160538</v>
       </c>
       <c r="B4" t="n">
-        <v>77587</v>
+        <v>85702</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>864</v>
+        <v>510</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,13 +954,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>610515.4393746156</v>
+        <v>612129.8886425173</v>
       </c>
       <c r="R4" t="n">
-        <v>7293676.840606544</v>
+        <v>7293209.402120763</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>337119</v>
+        <v>66543149</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
+          <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>612040.1440992347</v>
+        <v>609517.1953891811</v>
       </c>
       <c r="R5" t="n">
-        <v>7293206.319840582</v>
+        <v>7291738.242583656</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1119,11 +1119,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Inv reviderad msp</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1132,26 +1127,31 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>23994</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91541</v>
+        <v>66543023</v>
       </c>
       <c r="B6" t="n">
-        <v>89576</v>
+        <v>89388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,38 +1160,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
+          <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>612043.0252919218</v>
+        <v>609692.8269430065</v>
       </c>
       <c r="R6" t="n">
-        <v>7293206.431970854</v>
+        <v>7291403.824247368</v>
       </c>
       <c r="S6" t="n">
         <v>50</v>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1236,11 +1236,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Inv reviderad msp</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1249,26 +1244,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>23874</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>160538</v>
+        <v>66543026</v>
       </c>
       <c r="B7" t="n">
-        <v>85702</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,34 +1281,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
+          <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>612129.8886425173</v>
+        <v>609688.9387038479</v>
       </c>
       <c r="R7" t="n">
-        <v>7293209.402120763</v>
+        <v>7291386.784908226</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2005-10-11</t>
+          <t>2014-09-02</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1353,11 +1353,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Inv reviderad msp</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1366,26 +1361,31 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>23877</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Andreas Garpebring</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>66543128</v>
+        <v>66543019</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>73698</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,21 +1398,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1467</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>611520.880474565</v>
+        <v>609719.3088162383</v>
       </c>
       <c r="R8" t="n">
-        <v>7291030.254368779</v>
+        <v>7291434.083203567</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>23973</t>
+          <t>23871</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66542998</v>
+        <v>66543147</v>
       </c>
       <c r="B9" t="n">
-        <v>89673</v>
+        <v>89388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,21 +1515,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>611436.7084396144</v>
+        <v>609674.4042320828</v>
       </c>
       <c r="R9" t="n">
-        <v>7290134.346341823</v>
+        <v>7291584.389159444</v>
       </c>
       <c r="S9" t="n">
         <v>50</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>23851</t>
+          <t>23992</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>66543008</v>
+        <v>66543030</v>
       </c>
       <c r="B10" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,26 +1632,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>611344.0134488414</v>
+        <v>609627.9790624094</v>
       </c>
       <c r="R10" t="n">
-        <v>7290408.150096151</v>
+        <v>7291373.753099522</v>
       </c>
       <c r="S10" t="n">
         <v>50</v>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>23860</t>
+          <t>23881</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66543097</v>
+        <v>66543024</v>
       </c>
       <c r="B11" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,21 +1753,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>611252.6820368215</v>
+        <v>609688.9387038479</v>
       </c>
       <c r="R11" t="n">
-        <v>7290679.097382276</v>
+        <v>7291386.784908226</v>
       </c>
       <c r="S11" t="n">
         <v>50</v>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>23942</t>
+          <t>23875</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1847,17 +1847,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66542938</v>
+        <v>66543041</v>
       </c>
       <c r="B12" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,38 +1866,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>611313.6660955219</v>
+        <v>609594.2486340899</v>
       </c>
       <c r="R12" t="n">
-        <v>7290285.805325296</v>
+        <v>7291360.522240244</v>
       </c>
       <c r="S12" t="n">
         <v>50</v>
@@ -1953,7 +1957,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>23792</t>
+          <t>23892</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1971,10 +1975,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>66543001</v>
+        <v>66543033</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,21 +1991,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2011,10 +2015,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>611436.7084396144</v>
+        <v>609627.9790624094</v>
       </c>
       <c r="R13" t="n">
-        <v>7290134.346341823</v>
+        <v>7291373.753099522</v>
       </c>
       <c r="S13" t="n">
         <v>50</v>
@@ -2070,7 +2074,7 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>23854</t>
+          <t>23884</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2088,10 +2092,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>66543009</v>
+        <v>66543146</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2104,38 +2108,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>611344.0134488414</v>
+        <v>609666.8050146233</v>
       </c>
       <c r="R14" t="n">
-        <v>7290408.150096151</v>
+        <v>7291556.498691992</v>
       </c>
       <c r="S14" t="n">
         <v>50</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>23861</t>
+          <t>23991</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>66542942</v>
+        <v>66543037</v>
       </c>
       <c r="B15" t="n">
-        <v>89388</v>
+        <v>89406</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,38 +2225,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>611408.8145287165</v>
+        <v>609598.0279233219</v>
       </c>
       <c r="R15" t="n">
-        <v>7290258.156947029</v>
+        <v>7291380.441301609</v>
       </c>
       <c r="S15" t="n">
         <v>50</v>
@@ -2312,7 +2308,7 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>23796</t>
+          <t>23888</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2330,10 +2326,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>66543023</v>
+        <v>66543021</v>
       </c>
       <c r="B16" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2346,34 +2342,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>609692.8269430065</v>
+        <v>609699.4884457163</v>
       </c>
       <c r="R16" t="n">
-        <v>7291403.824247368</v>
+        <v>7291423.852944161</v>
       </c>
       <c r="S16" t="n">
         <v>50</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>23874</t>
+          <t>23873</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2447,10 +2447,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>66543123</v>
+        <v>66543020</v>
       </c>
       <c r="B17" t="n">
-        <v>89673</v>
+        <v>56395</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2463,21 +2463,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>611323.8699177485</v>
+        <v>609699.4884457163</v>
       </c>
       <c r="R17" t="n">
-        <v>7290950.937844237</v>
+        <v>7291423.852944161</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>23968</t>
+          <t>23872</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>66543133</v>
+        <v>66543040</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2580,21 +2580,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2604,10 +2604,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>611593.9780841735</v>
+        <v>609594.2486340899</v>
       </c>
       <c r="R18" t="n">
-        <v>7291177.30084341</v>
+        <v>7291360.522240244</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>23978</t>
+          <t>23891</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66543003</v>
+        <v>66543029</v>
       </c>
       <c r="B19" t="n">
-        <v>89577</v>
+        <v>89673</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2693,25 +2693,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>611436.7084396144</v>
+        <v>609627.9790624094</v>
       </c>
       <c r="R19" t="n">
-        <v>7290134.346341823</v>
+        <v>7291373.753099522</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>23855</t>
+          <t>23880</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>66542965</v>
+        <v>66543151</v>
       </c>
       <c r="B20" t="n">
-        <v>77588</v>
+        <v>89388</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2814,38 +2814,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>611572.281353937</v>
+        <v>609670.1606705183</v>
       </c>
       <c r="R20" t="n">
-        <v>7289915.353663342</v>
+        <v>7291587.523254925</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2901,7 +2897,7 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>23819</t>
+          <t>23996</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2919,10 +2915,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>66543119</v>
+        <v>66543148</v>
       </c>
       <c r="B21" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2935,21 +2931,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2959,10 +2955,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>611283.0576313192</v>
+        <v>609674.4042320828</v>
       </c>
       <c r="R21" t="n">
-        <v>7290811.316200127</v>
+        <v>7291584.389159444</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -3018,7 +3014,7 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>23964</t>
+          <t>23993</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3036,7 +3032,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>66542966</v>
+        <v>66543039</v>
       </c>
       <c r="B22" t="n">
         <v>89410</v>
@@ -3069,21 +3065,17 @@
           <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>611571.5251276373</v>
+        <v>609598.0279233219</v>
       </c>
       <c r="R22" t="n">
-        <v>7289892.240202619</v>
+        <v>7291380.441301609</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3139,7 +3131,7 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>23820</t>
+          <t>23890</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3157,10 +3149,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>66543105</v>
+        <v>66543032</v>
       </c>
       <c r="B23" t="n">
-        <v>89406</v>
+        <v>89742</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3169,25 +3161,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>1506</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ostticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Skeletocutis odora</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Sacc.) Ginns</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3197,10 +3189,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>611562.7655368198</v>
+        <v>609627.9790624094</v>
       </c>
       <c r="R23" t="n">
-        <v>7291045.885621096</v>
+        <v>7291373.753099522</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3256,7 +3248,7 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>23950</t>
+          <t>23883</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3267,17 +3259,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>66543090</v>
+        <v>66543036</v>
       </c>
       <c r="B24" t="n">
-        <v>77588</v>
+        <v>89449</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3290,21 +3282,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>864</v>
+        <v>3277</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3314,10 +3306,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>610497.2804979683</v>
+        <v>609598.0279233219</v>
       </c>
       <c r="R24" t="n">
-        <v>7291507.074025737</v>
+        <v>7291380.441301609</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3373,7 +3365,7 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>23935</t>
+          <t>23887</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3384,14 +3376,14 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66543114</v>
+        <v>66543028</v>
       </c>
       <c r="B25" t="n">
         <v>89388</v>
@@ -3431,10 +3423,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>611210.3001982555</v>
+        <v>609627.9790624094</v>
       </c>
       <c r="R25" t="n">
-        <v>7291018.251063501</v>
+        <v>7291373.753099522</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3490,7 +3482,7 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>23959</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3501,17 +3493,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>66543093</v>
+        <v>66543150</v>
       </c>
       <c r="B26" t="n">
-        <v>89410</v>
+        <v>90074</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3520,25 +3512,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3548,10 +3540,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>610319.0363396152</v>
+        <v>609643.6035612399</v>
       </c>
       <c r="R26" t="n">
-        <v>7291368.819889625</v>
+        <v>7291635.122694188</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3607,7 +3599,7 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>23938</t>
+          <t>23995</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3618,17 +3610,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66543026</v>
+        <v>66543025</v>
       </c>
       <c r="B27" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3641,24 +3633,28 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
@@ -3724,7 +3720,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>23877</t>
+          <t>23876</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr"/>
@@ -3742,10 +3738,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>66542931</v>
+        <v>66542965</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3758,26 +3754,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3786,10 +3782,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>611342.8277565886</v>
+        <v>611572.281353937</v>
       </c>
       <c r="R28" t="n">
-        <v>7290257.255932777</v>
+        <v>7289915.353663342</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>23785</t>
+          <t>23819</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -3863,10 +3859,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>66543019</v>
+        <v>66542966</v>
       </c>
       <c r="B29" t="n">
-        <v>73698</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3879,34 +3875,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1467</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>609719.3088162383</v>
+        <v>611571.5251276373</v>
       </c>
       <c r="R29" t="n">
-        <v>7291434.083203567</v>
+        <v>7289892.240202619</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>23871</t>
+          <t>23820</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -3980,10 +3980,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>66543111</v>
+        <v>66542969</v>
       </c>
       <c r="B30" t="n">
-        <v>89406</v>
+        <v>89356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3992,25 +3992,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4020,10 +4020,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>611286.1454262913</v>
+        <v>611549.9282156557</v>
       </c>
       <c r="R30" t="n">
-        <v>7291105.237321127</v>
+        <v>7289863.785637801</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>23956</t>
+          <t>23823</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4090,17 +4090,17 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>66543147</v>
+        <v>66542980</v>
       </c>
       <c r="B31" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4113,21 +4113,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4137,10 +4137,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>609674.4042320828</v>
+        <v>611509.4088960965</v>
       </c>
       <c r="R31" t="n">
-        <v>7291584.389159444</v>
+        <v>7289449.55362201</v>
       </c>
       <c r="S31" t="n">
         <v>50</v>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>23992</t>
+          <t>23833</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4214,10 +4214,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>66543137</v>
+        <v>66542968</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>77588</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4230,21 +4230,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>864</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>611208.2555811593</v>
+        <v>611549.9282156557</v>
       </c>
       <c r="R32" t="n">
-        <v>7291028.473508374</v>
+        <v>7289863.785637801</v>
       </c>
       <c r="S32" t="n">
         <v>50</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>23982</t>
+          <t>23822</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>66542949</v>
+        <v>66542964</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4347,34 +4347,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>611585.0352429696</v>
+        <v>611572.281353937</v>
       </c>
       <c r="R33" t="n">
-        <v>7290172.23442466</v>
+        <v>7289915.353663342</v>
       </c>
       <c r="S33" t="n">
         <v>50</v>
@@ -4430,7 +4434,7 @@
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>23803</t>
+          <t>23818</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4448,10 +4452,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66543113</v>
+        <v>66542967</v>
       </c>
       <c r="B34" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4464,21 +4468,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4488,10 +4492,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>611218.1086652895</v>
+        <v>611571.5251276373</v>
       </c>
       <c r="R34" t="n">
-        <v>7291040.391264994</v>
+        <v>7289892.240202619</v>
       </c>
       <c r="S34" t="n">
         <v>50</v>
@@ -4547,7 +4551,7 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>23958</t>
+          <t>23821</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4558,14 +4562,14 @@
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>66543030</v>
+        <v>66542981</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4600,7 +4604,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4609,10 +4613,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>609627.9790624094</v>
+        <v>611509.4088960965</v>
       </c>
       <c r="R35" t="n">
-        <v>7291373.753099522</v>
+        <v>7289449.55362201</v>
       </c>
       <c r="S35" t="n">
         <v>50</v>
@@ -4668,7 +4672,7 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>23881</t>
+          <t>23834</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4686,10 +4690,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>66542969</v>
+        <v>314239</v>
       </c>
       <c r="B36" t="n">
-        <v>89356</v>
+        <v>77587</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4698,41 +4702,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>864</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Grannäs Ö, Ly lm</t>
+          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>611549.9282156557</v>
+        <v>610504.6643166898</v>
       </c>
       <c r="R36" t="n">
-        <v>7289863.785637801</v>
+        <v>7293710.595188672</v>
       </c>
       <c r="S36" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4756,7 +4760,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4766,7 +4770,7 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4774,6 +4778,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Inv reviderad msp</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
@@ -4782,31 +4791,26 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>23823</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66543005</v>
+        <v>314240</v>
       </c>
       <c r="B37" t="n">
-        <v>89410</v>
+        <v>77587</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4819,37 +4823,37 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5432</v>
+        <v>864</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Grannäs Ö, Ly lm</t>
+          <t>Stor-Lairomyran-Björnmyran, Ly lm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>611327.8276871105</v>
+        <v>610515.4393746156</v>
       </c>
       <c r="R37" t="n">
-        <v>7290196.912068681</v>
+        <v>7293676.840606544</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4883,7 +4887,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2014-09-02</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4891,6 +4895,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Inv reviderad msp</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
@@ -4899,31 +4908,26 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>23857</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Andreas Garpebring</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>66542980</v>
+        <v>66543128</v>
       </c>
       <c r="B38" t="n">
-        <v>78570</v>
+        <v>89410</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4936,21 +4940,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4960,10 +4964,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>611509.4088960965</v>
+        <v>611520.880474565</v>
       </c>
       <c r="R38" t="n">
-        <v>7289449.55362201</v>
+        <v>7291030.254368779</v>
       </c>
       <c r="S38" t="n">
         <v>50</v>
@@ -5019,7 +5023,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>23833</t>
+          <t>23973</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -5037,10 +5041,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>66543080</v>
+        <v>66542998</v>
       </c>
       <c r="B39" t="n">
-        <v>89406</v>
+        <v>89673</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5053,21 +5057,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5077,10 +5081,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>610436.0116408257</v>
+        <v>611436.7084396144</v>
       </c>
       <c r="R39" t="n">
-        <v>7291599.065801032</v>
+        <v>7290134.346341823</v>
       </c>
       <c r="S39" t="n">
         <v>50</v>
@@ -5136,7 +5140,7 @@
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>23926</t>
+          <t>23851</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -5147,14 +5151,14 @@
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>66543125</v>
+        <v>66543008</v>
       </c>
       <c r="B40" t="n">
         <v>81236</v>
@@ -5187,17 +5191,21 @@
           <t>(Nyl.) Rehm</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>611403.0918552338</v>
+        <v>611344.0134488414</v>
       </c>
       <c r="R40" t="n">
-        <v>7291014.57258946</v>
+        <v>7290408.150096151</v>
       </c>
       <c r="S40" t="n">
         <v>50</v>
@@ -5253,7 +5261,7 @@
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>23970</t>
+          <t>23860</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr"/>
@@ -5271,10 +5279,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>66543076</v>
+        <v>66543097</v>
       </c>
       <c r="B41" t="n">
-        <v>89388</v>
+        <v>89410</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5287,21 +5295,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5311,10 +5319,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>610187.7829902446</v>
+        <v>611252.6820368215</v>
       </c>
       <c r="R41" t="n">
-        <v>7291683.898360151</v>
+        <v>7290679.097382276</v>
       </c>
       <c r="S41" t="n">
         <v>50</v>
@@ -5370,7 +5378,7 @@
       </c>
       <c r="AR41" t="inlineStr">
         <is>
-          <t>23923</t>
+          <t>23942</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>
@@ -5388,10 +5396,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66543126</v>
+        <v>66542938</v>
       </c>
       <c r="B42" t="n">
-        <v>89406</v>
+        <v>89356</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5400,25 +5408,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5428,10 +5436,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>611511.1697899317</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R42" t="n">
-        <v>7291025.345932924</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S42" t="n">
         <v>50</v>
@@ -5487,7 +5495,7 @@
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>23971</t>
+          <t>23792</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5505,10 +5513,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>66542944</v>
+        <v>66543001</v>
       </c>
       <c r="B43" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5521,21 +5529,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5545,10 +5553,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>611515.5353717695</v>
+        <v>611436.7084396144</v>
       </c>
       <c r="R43" t="n">
-        <v>7290219.418162526</v>
+        <v>7290134.346341823</v>
       </c>
       <c r="S43" t="n">
         <v>50</v>
@@ -5604,7 +5612,7 @@
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>23798</t>
+          <t>23854</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr"/>
@@ -5622,10 +5630,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>66543024</v>
+        <v>66543009</v>
       </c>
       <c r="B44" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5638,34 +5646,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>609688.9387038479</v>
+        <v>611344.0134488414</v>
       </c>
       <c r="R44" t="n">
-        <v>7291386.784908226</v>
+        <v>7290408.150096151</v>
       </c>
       <c r="S44" t="n">
         <v>50</v>
@@ -5721,7 +5733,7 @@
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>23861</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr"/>
@@ -5739,10 +5751,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>66542935</v>
+        <v>66542942</v>
       </c>
       <c r="B45" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5755,26 +5767,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5783,10 +5795,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>611369.2461295701</v>
+        <v>611408.8145287165</v>
       </c>
       <c r="R45" t="n">
-        <v>7290246.323729298</v>
+        <v>7290258.156947029</v>
       </c>
       <c r="S45" t="n">
         <v>50</v>
@@ -5842,7 +5854,7 @@
       </c>
       <c r="AR45" t="inlineStr">
         <is>
-          <t>23789</t>
+          <t>23796</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr"/>
@@ -5860,10 +5872,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>66542945</v>
+        <v>66543123</v>
       </c>
       <c r="B46" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5876,38 +5888,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>611515.5353717695</v>
+        <v>611323.8699177485</v>
       </c>
       <c r="R46" t="n">
-        <v>7290219.418162526</v>
+        <v>7290950.937844237</v>
       </c>
       <c r="S46" t="n">
         <v>50</v>
@@ -5963,7 +5971,7 @@
       </c>
       <c r="AR46" t="inlineStr">
         <is>
-          <t>23799</t>
+          <t>23968</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr"/>
@@ -5981,7 +5989,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>66543041</v>
+        <v>66543133</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -6014,21 +6022,17 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>609594.2486340899</v>
+        <v>611593.9780841735</v>
       </c>
       <c r="R47" t="n">
-        <v>7291360.522240244</v>
+        <v>7291177.30084341</v>
       </c>
       <c r="S47" t="n">
         <v>50</v>
@@ -6084,7 +6088,7 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>23892</t>
+          <t>23978</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr"/>
@@ -6102,10 +6106,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>66543033</v>
+        <v>66543003</v>
       </c>
       <c r="B48" t="n">
-        <v>89406</v>
+        <v>89577</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6114,25 +6118,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1204</v>
+        <v>48</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6142,10 +6146,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>609627.9790624094</v>
+        <v>611436.7084396144</v>
       </c>
       <c r="R48" t="n">
-        <v>7291373.753099522</v>
+        <v>7290134.346341823</v>
       </c>
       <c r="S48" t="n">
         <v>50</v>
@@ -6201,7 +6205,7 @@
       </c>
       <c r="AR48" t="inlineStr">
         <is>
-          <t>23884</t>
+          <t>23855</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr"/>
@@ -6219,10 +6223,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>66543006</v>
+        <v>66543119</v>
       </c>
       <c r="B49" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6235,21 +6239,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6259,10 +6263,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>611327.8276871105</v>
+        <v>611283.0576313192</v>
       </c>
       <c r="R49" t="n">
-        <v>7290196.912068681</v>
+        <v>7290811.316200127</v>
       </c>
       <c r="S49" t="n">
         <v>50</v>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="AR49" t="inlineStr">
         <is>
-          <t>23858</t>
+          <t>23964</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr"/>
@@ -6336,10 +6340,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>66543071</v>
+        <v>66543105</v>
       </c>
       <c r="B50" t="n">
-        <v>85703</v>
+        <v>89406</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6352,21 +6356,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>510</v>
+        <v>1204</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6376,10 +6380,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>610109.2375404027</v>
+        <v>611562.7655368198</v>
       </c>
       <c r="R50" t="n">
-        <v>7291570.079107936</v>
+        <v>7291045.885621096</v>
       </c>
       <c r="S50" t="n">
         <v>50</v>
@@ -6435,7 +6439,7 @@
       </c>
       <c r="AR50" t="inlineStr">
         <is>
-          <t>23919</t>
+          <t>23950</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr"/>
@@ -6453,10 +6457,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>66543138</v>
+        <v>66543090</v>
       </c>
       <c r="B51" t="n">
-        <v>89673</v>
+        <v>77588</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6469,21 +6473,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>658</v>
+        <v>864</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6493,10 +6497,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>611208.2555811593</v>
+        <v>610497.2804979683</v>
       </c>
       <c r="R51" t="n">
-        <v>7291028.473508374</v>
+        <v>7291507.074025737</v>
       </c>
       <c r="S51" t="n">
         <v>50</v>
@@ -6552,7 +6556,7 @@
       </c>
       <c r="AR51" t="inlineStr">
         <is>
-          <t>23983</t>
+          <t>23935</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr"/>
@@ -6563,17 +6567,17 @@
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>66543087</v>
+        <v>66543114</v>
       </c>
       <c r="B52" t="n">
-        <v>89406</v>
+        <v>89388</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6586,21 +6590,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6610,10 +6614,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>610512.8215171279</v>
+        <v>611210.3001982555</v>
       </c>
       <c r="R52" t="n">
-        <v>7291521.265340573</v>
+        <v>7291018.251063501</v>
       </c>
       <c r="S52" t="n">
         <v>50</v>
@@ -6669,7 +6673,7 @@
       </c>
       <c r="AR52" t="inlineStr">
         <is>
-          <t>23932</t>
+          <t>23959</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr"/>
@@ -6687,7 +6691,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>66543077</v>
+        <v>66543093</v>
       </c>
       <c r="B53" t="n">
         <v>89410</v>
@@ -6727,10 +6731,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>610222.5065215235</v>
+        <v>610319.0363396152</v>
       </c>
       <c r="R53" t="n">
-        <v>7291703.352402303</v>
+        <v>7291368.819889625</v>
       </c>
       <c r="S53" t="n">
         <v>50</v>
@@ -6786,7 +6790,7 @@
       </c>
       <c r="AR53" t="inlineStr">
         <is>
-          <t>23924</t>
+          <t>23938</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr"/>
@@ -6804,10 +6808,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>66543129</v>
+        <v>66542931</v>
       </c>
       <c r="B54" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6820,34 +6824,38 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>611538.5086087692</v>
+        <v>611342.8277565886</v>
       </c>
       <c r="R54" t="n">
-        <v>7291054.423825585</v>
+        <v>7290257.255932777</v>
       </c>
       <c r="S54" t="n">
         <v>50</v>
@@ -6903,7 +6911,7 @@
       </c>
       <c r="AR54" t="inlineStr">
         <is>
-          <t>23974</t>
+          <t>23785</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr"/>
@@ -6921,10 +6929,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>66543146</v>
+        <v>66543111</v>
       </c>
       <c r="B55" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6937,21 +6945,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6961,10 +6969,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>609666.8050146233</v>
+        <v>611286.1454262913</v>
       </c>
       <c r="R55" t="n">
-        <v>7291556.498691992</v>
+        <v>7291105.237321127</v>
       </c>
       <c r="S55" t="n">
         <v>50</v>
@@ -7020,7 +7028,7 @@
       </c>
       <c r="AR55" t="inlineStr">
         <is>
-          <t>23991</t>
+          <t>23956</t>
         </is>
       </c>
       <c r="AT55" t="inlineStr"/>
@@ -7031,17 +7039,17 @@
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>66543115</v>
+        <v>66543137</v>
       </c>
       <c r="B56" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7054,21 +7062,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7078,10 +7086,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>611210.3001982555</v>
+        <v>611208.2555811593</v>
       </c>
       <c r="R56" t="n">
-        <v>7291018.251063501</v>
+        <v>7291028.473508374</v>
       </c>
       <c r="S56" t="n">
         <v>50</v>
@@ -7137,7 +7145,7 @@
       </c>
       <c r="AR56" t="inlineStr">
         <is>
-          <t>23960</t>
+          <t>23982</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr"/>
@@ -7148,17 +7156,17 @@
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>66543099</v>
+        <v>66542949</v>
       </c>
       <c r="B57" t="n">
-        <v>89406</v>
+        <v>56395</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7171,21 +7179,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7195,10 +7203,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>611285.7199511252</v>
+        <v>611585.0352429696</v>
       </c>
       <c r="R57" t="n">
-        <v>7290806.473982292</v>
+        <v>7290172.23442466</v>
       </c>
       <c r="S57" t="n">
         <v>50</v>
@@ -7254,7 +7262,7 @@
       </c>
       <c r="AR57" t="inlineStr">
         <is>
-          <t>23944</t>
+          <t>23803</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr"/>
@@ -7265,17 +7273,17 @@
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>66543118</v>
+        <v>66543113</v>
       </c>
       <c r="B58" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7288,21 +7296,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7312,10 +7320,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>611287.9385575844</v>
+        <v>611218.1086652895</v>
       </c>
       <c r="R58" t="n">
-        <v>7290802.438796131</v>
+        <v>7291040.391264994</v>
       </c>
       <c r="S58" t="n">
         <v>50</v>
@@ -7371,7 +7379,7 @@
       </c>
       <c r="AR58" t="inlineStr">
         <is>
-          <t>23963</t>
+          <t>23958</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr"/>
@@ -7382,17 +7390,17 @@
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66543037</v>
+        <v>66543005</v>
       </c>
       <c r="B59" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7405,21 +7413,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7429,10 +7437,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>609598.0279233219</v>
+        <v>611327.8276871105</v>
       </c>
       <c r="R59" t="n">
-        <v>7291380.441301609</v>
+        <v>7290196.912068681</v>
       </c>
       <c r="S59" t="n">
         <v>50</v>
@@ -7488,7 +7496,7 @@
       </c>
       <c r="AR59" t="inlineStr">
         <is>
-          <t>23888</t>
+          <t>23857</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr"/>
@@ -7506,10 +7514,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>66543109</v>
+        <v>66543080</v>
       </c>
       <c r="B60" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7522,21 +7530,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7546,10 +7554,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>611571.8134363632</v>
+        <v>610436.0116408257</v>
       </c>
       <c r="R60" t="n">
-        <v>7291185.095258459</v>
+        <v>7291599.065801032</v>
       </c>
       <c r="S60" t="n">
         <v>50</v>
@@ -7605,7 +7613,7 @@
       </c>
       <c r="AR60" t="inlineStr">
         <is>
-          <t>23954</t>
+          <t>23926</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr"/>
@@ -7623,10 +7631,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>66543021</v>
+        <v>66543125</v>
       </c>
       <c r="B61" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7639,38 +7647,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>609699.4884457163</v>
+        <v>611403.0918552338</v>
       </c>
       <c r="R61" t="n">
-        <v>7291423.852944161</v>
+        <v>7291014.57258946</v>
       </c>
       <c r="S61" t="n">
         <v>50</v>
@@ -7726,7 +7730,7 @@
       </c>
       <c r="AR61" t="inlineStr">
         <is>
-          <t>23873</t>
+          <t>23970</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr"/>
@@ -7744,10 +7748,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>66542928</v>
+        <v>66543076</v>
       </c>
       <c r="B62" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7760,38 +7764,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>611290.0961338516</v>
+        <v>610187.7829902446</v>
       </c>
       <c r="R62" t="n">
-        <v>7290340.536280581</v>
+        <v>7291683.898360151</v>
       </c>
       <c r="S62" t="n">
         <v>50</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>23782</t>
+          <t>23923</t>
         </is>
       </c>
       <c r="AT62" t="inlineStr"/>
@@ -7858,17 +7858,17 @@
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66543000</v>
+        <v>66543126</v>
       </c>
       <c r="B63" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7881,38 +7881,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>611436.7084396144</v>
+        <v>611511.1697899317</v>
       </c>
       <c r="R63" t="n">
-        <v>7290134.346341823</v>
+        <v>7291025.345932924</v>
       </c>
       <c r="S63" t="n">
         <v>50</v>
@@ -7968,7 +7964,7 @@
       </c>
       <c r="AR63" t="inlineStr">
         <is>
-          <t>23853</t>
+          <t>23971</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr"/>
@@ -7986,10 +7982,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>66543020</v>
+        <v>66542944</v>
       </c>
       <c r="B64" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8002,21 +7998,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8026,10 +8022,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>609699.4884457163</v>
+        <v>611515.5353717695</v>
       </c>
       <c r="R64" t="n">
-        <v>7291423.852944161</v>
+        <v>7290219.418162526</v>
       </c>
       <c r="S64" t="n">
         <v>50</v>
@@ -8085,7 +8081,7 @@
       </c>
       <c r="AR64" t="inlineStr">
         <is>
-          <t>23872</t>
+          <t>23798</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr"/>
@@ -8103,7 +8099,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>66542996</v>
+        <v>66542935</v>
       </c>
       <c r="B65" t="n">
         <v>77506</v>
@@ -8138,7 +8134,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -8147,10 +8143,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>611503.2768470033</v>
+        <v>611369.2461295701</v>
       </c>
       <c r="R65" t="n">
-        <v>7290088.282440787</v>
+        <v>7290246.323729298</v>
       </c>
       <c r="S65" t="n">
         <v>50</v>
@@ -8206,7 +8202,7 @@
       </c>
       <c r="AR65" t="inlineStr">
         <is>
-          <t>23849</t>
+          <t>23789</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr"/>
@@ -8224,7 +8220,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66542993</v>
+        <v>66542945</v>
       </c>
       <c r="B66" t="n">
         <v>77506</v>
@@ -8268,10 +8264,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>611533.1052473299</v>
+        <v>611515.5353717695</v>
       </c>
       <c r="R66" t="n">
-        <v>7290074.597467507</v>
+        <v>7290219.418162526</v>
       </c>
       <c r="S66" t="n">
         <v>50</v>
@@ -8327,7 +8323,7 @@
       </c>
       <c r="AR66" t="inlineStr">
         <is>
-          <t>23846</t>
+          <t>23799</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr"/>
@@ -8345,7 +8341,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66542929</v>
+        <v>66543006</v>
       </c>
       <c r="B67" t="n">
         <v>56395</v>
@@ -8385,10 +8381,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>611313.6660955219</v>
+        <v>611327.8276871105</v>
       </c>
       <c r="R67" t="n">
-        <v>7290285.805325296</v>
+        <v>7290196.912068681</v>
       </c>
       <c r="S67" t="n">
         <v>50</v>
@@ -8444,7 +8440,7 @@
       </c>
       <c r="AR67" t="inlineStr">
         <is>
-          <t>23783</t>
+          <t>23858</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr"/>
@@ -8462,10 +8458,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66543040</v>
+        <v>66543071</v>
       </c>
       <c r="B68" t="n">
-        <v>77588</v>
+        <v>85703</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8478,21 +8474,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>864</v>
+        <v>510</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8502,10 +8498,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>609594.2486340899</v>
+        <v>610109.2375404027</v>
       </c>
       <c r="R68" t="n">
-        <v>7291360.522240244</v>
+        <v>7291570.079107936</v>
       </c>
       <c r="S68" t="n">
         <v>50</v>
@@ -8561,7 +8557,7 @@
       </c>
       <c r="AR68" t="inlineStr">
         <is>
-          <t>23891</t>
+          <t>23919</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr"/>
@@ -8572,17 +8568,17 @@
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66542992</v>
+        <v>66543138</v>
       </c>
       <c r="B69" t="n">
-        <v>89410</v>
+        <v>89673</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8595,21 +8591,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>658</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8619,10 +8615,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>611533.1052473299</v>
+        <v>611208.2555811593</v>
       </c>
       <c r="R69" t="n">
-        <v>7290074.597467507</v>
+        <v>7291028.473508374</v>
       </c>
       <c r="S69" t="n">
         <v>50</v>
@@ -8678,7 +8674,7 @@
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>23845</t>
+          <t>23983</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr"/>
@@ -8696,10 +8692,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>66542994</v>
+        <v>66543087</v>
       </c>
       <c r="B70" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8712,21 +8708,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8736,10 +8732,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>611533.1052473299</v>
+        <v>610512.8215171279</v>
       </c>
       <c r="R70" t="n">
-        <v>7290074.597467507</v>
+        <v>7291521.265340573</v>
       </c>
       <c r="S70" t="n">
         <v>50</v>
@@ -8795,7 +8791,7 @@
       </c>
       <c r="AR70" t="inlineStr">
         <is>
-          <t>23847</t>
+          <t>23932</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr"/>
@@ -8806,17 +8802,17 @@
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>66542934</v>
+        <v>66543077</v>
       </c>
       <c r="B71" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8829,21 +8825,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8853,10 +8849,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>611369.2461295701</v>
+        <v>610222.5065215235</v>
       </c>
       <c r="R71" t="n">
-        <v>7290246.323729298</v>
+        <v>7291703.352402303</v>
       </c>
       <c r="S71" t="n">
         <v>50</v>
@@ -8912,7 +8908,7 @@
       </c>
       <c r="AR71" t="inlineStr">
         <is>
-          <t>23788</t>
+          <t>23924</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr"/>
@@ -8923,17 +8919,17 @@
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>66543131</v>
+        <v>66543129</v>
       </c>
       <c r="B72" t="n">
-        <v>89406</v>
+        <v>89388</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8946,21 +8942,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8970,10 +8966,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>611570.8284445805</v>
+        <v>611538.5086087692</v>
       </c>
       <c r="R72" t="n">
-        <v>7291050.730407006</v>
+        <v>7291054.423825585</v>
       </c>
       <c r="S72" t="n">
         <v>50</v>
@@ -9029,7 +9025,7 @@
       </c>
       <c r="AR72" t="inlineStr">
         <is>
-          <t>23976</t>
+          <t>23974</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr"/>
@@ -9047,10 +9043,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>66543074</v>
+        <v>66543115</v>
       </c>
       <c r="B73" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9063,21 +9059,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -9087,10 +9083,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>610168.3220857085</v>
+        <v>611210.3001982555</v>
       </c>
       <c r="R73" t="n">
-        <v>7291642.782883788</v>
+        <v>7291018.251063501</v>
       </c>
       <c r="S73" t="n">
         <v>50</v>
@@ -9146,7 +9142,7 @@
       </c>
       <c r="AR73" t="inlineStr">
         <is>
-          <t>23922</t>
+          <t>23960</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr"/>
@@ -9164,10 +9160,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>66542933</v>
+        <v>66543099</v>
       </c>
       <c r="B74" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9180,38 +9176,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>611363.2407100884</v>
+        <v>611285.7199511252</v>
       </c>
       <c r="R74" t="n">
-        <v>7290241.557870357</v>
+        <v>7290806.473982292</v>
       </c>
       <c r="S74" t="n">
         <v>50</v>
@@ -9267,7 +9259,7 @@
       </c>
       <c r="AR74" t="inlineStr">
         <is>
-          <t>23787</t>
+          <t>23944</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr"/>
@@ -9278,17 +9270,17 @@
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>66542953</v>
+        <v>66543118</v>
       </c>
       <c r="B75" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9301,21 +9293,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9325,10 +9317,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>611596.6125652546</v>
+        <v>611287.9385575844</v>
       </c>
       <c r="R75" t="n">
-        <v>7290054.384588947</v>
+        <v>7290802.438796131</v>
       </c>
       <c r="S75" t="n">
         <v>50</v>
@@ -9384,7 +9376,7 @@
       </c>
       <c r="AR75" t="inlineStr">
         <is>
-          <t>23807</t>
+          <t>23963</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr"/>
@@ -9402,7 +9394,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>66543104</v>
+        <v>66543109</v>
       </c>
       <c r="B76" t="n">
         <v>89410</v>
@@ -9442,10 +9434,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>611506.5689346949</v>
+        <v>611571.8134363632</v>
       </c>
       <c r="R76" t="n">
-        <v>7291058.956410483</v>
+        <v>7291185.095258459</v>
       </c>
       <c r="S76" t="n">
         <v>50</v>
@@ -9501,7 +9493,7 @@
       </c>
       <c r="AR76" t="inlineStr">
         <is>
-          <t>23949</t>
+          <t>23954</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr"/>
@@ -9519,10 +9511,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>66543112</v>
+        <v>66542928</v>
       </c>
       <c r="B77" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9535,34 +9527,38 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>611218.1086652895</v>
+        <v>611290.0961338516</v>
       </c>
       <c r="R77" t="n">
-        <v>7291040.391264994</v>
+        <v>7290340.536280581</v>
       </c>
       <c r="S77" t="n">
         <v>50</v>
@@ -9618,7 +9614,7 @@
       </c>
       <c r="AR77" t="inlineStr">
         <is>
-          <t>23957</t>
+          <t>23782</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -9629,17 +9625,17 @@
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>66543029</v>
+        <v>66543000</v>
       </c>
       <c r="B78" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9652,34 +9648,38 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>609627.9790624094</v>
+        <v>611436.7084396144</v>
       </c>
       <c r="R78" t="n">
-        <v>7291373.753099522</v>
+        <v>7290134.346341823</v>
       </c>
       <c r="S78" t="n">
         <v>50</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="AR78" t="inlineStr">
         <is>
-          <t>23880</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>66543136</v>
+        <v>66542996</v>
       </c>
       <c r="B79" t="n">
         <v>77506</v>
@@ -9786,17 +9786,21 @@
           <t>(Ach.) Ach.</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>611273.1871086054</v>
+        <v>611503.2768470033</v>
       </c>
       <c r="R79" t="n">
-        <v>7291098.96826453</v>
+        <v>7290088.282440787</v>
       </c>
       <c r="S79" t="n">
         <v>50</v>
@@ -9852,7 +9856,7 @@
       </c>
       <c r="AR79" t="inlineStr">
         <is>
-          <t>23981</t>
+          <t>23849</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr"/>
@@ -9870,10 +9874,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>66543134</v>
+        <v>66542993</v>
       </c>
       <c r="B80" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9886,34 +9890,38 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>611360.277972525</v>
+        <v>611533.1052473299</v>
       </c>
       <c r="R80" t="n">
-        <v>7291172.379548516</v>
+        <v>7290074.597467507</v>
       </c>
       <c r="S80" t="n">
         <v>50</v>
@@ -9969,7 +9977,7 @@
       </c>
       <c r="AR80" t="inlineStr">
         <is>
-          <t>23979</t>
+          <t>23846</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr"/>
@@ -9987,10 +9995,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>66543085</v>
+        <v>66542929</v>
       </c>
       <c r="B81" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -10003,21 +10011,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -10027,10 +10035,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>610461.2084786585</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R81" t="n">
-        <v>7291576.549829715</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S81" t="n">
         <v>50</v>
@@ -10086,7 +10094,7 @@
       </c>
       <c r="AR81" t="inlineStr">
         <is>
-          <t>23930</t>
+          <t>23783</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -10097,17 +10105,17 @@
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>66543132</v>
+        <v>66542992</v>
       </c>
       <c r="B82" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10120,21 +10128,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10144,10 +10152,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>611593.9780841735</v>
+        <v>611533.1052473299</v>
       </c>
       <c r="R82" t="n">
-        <v>7291177.30084341</v>
+        <v>7290074.597467507</v>
       </c>
       <c r="S82" t="n">
         <v>50</v>
@@ -10203,7 +10211,7 @@
       </c>
       <c r="AR82" t="inlineStr">
         <is>
-          <t>23977</t>
+          <t>23845</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr"/>
@@ -10221,10 +10229,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>66543088</v>
+        <v>66542994</v>
       </c>
       <c r="B83" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10237,21 +10245,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -10261,10 +10269,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>610512.8215171279</v>
+        <v>611533.1052473299</v>
       </c>
       <c r="R83" t="n">
-        <v>7291521.265340573</v>
+        <v>7290074.597467507</v>
       </c>
       <c r="S83" t="n">
         <v>50</v>
@@ -10320,7 +10328,7 @@
       </c>
       <c r="AR83" t="inlineStr">
         <is>
-          <t>23933</t>
+          <t>23847</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr"/>
@@ -10331,17 +10339,17 @@
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>66543121</v>
+        <v>66542934</v>
       </c>
       <c r="B84" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10354,21 +10362,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -10378,10 +10386,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>611323.8699177485</v>
+        <v>611369.2461295701</v>
       </c>
       <c r="R84" t="n">
-        <v>7290950.937844237</v>
+        <v>7290246.323729298</v>
       </c>
       <c r="S84" t="n">
         <v>50</v>
@@ -10437,7 +10445,7 @@
       </c>
       <c r="AR84" t="inlineStr">
         <is>
-          <t>23966</t>
+          <t>23788</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr"/>
@@ -10455,7 +10463,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>66542995</v>
+        <v>66543131</v>
       </c>
       <c r="B85" t="n">
         <v>89406</v>
@@ -10495,10 +10503,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>611503.2768470033</v>
+        <v>611570.8284445805</v>
       </c>
       <c r="R85" t="n">
-        <v>7290088.282440787</v>
+        <v>7291050.730407006</v>
       </c>
       <c r="S85" t="n">
         <v>50</v>
@@ -10554,7 +10562,7 @@
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>23848</t>
+          <t>23976</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr"/>
@@ -10572,10 +10580,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>66543110</v>
+        <v>66543074</v>
       </c>
       <c r="B86" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10588,21 +10596,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10612,10 +10620,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>611392.8775105731</v>
+        <v>610168.3220857085</v>
       </c>
       <c r="R86" t="n">
-        <v>7291193.417272106</v>
+        <v>7291642.782883788</v>
       </c>
       <c r="S86" t="n">
         <v>50</v>
@@ -10671,7 +10679,7 @@
       </c>
       <c r="AR86" t="inlineStr">
         <is>
-          <t>23955</t>
+          <t>23922</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr"/>
@@ -10689,10 +10697,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>66543095</v>
+        <v>66542933</v>
       </c>
       <c r="B87" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10701,38 +10709,42 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="P87" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>611257.1225188905</v>
+        <v>611363.2407100884</v>
       </c>
       <c r="R87" t="n">
-        <v>7290638.882361396</v>
+        <v>7290241.557870357</v>
       </c>
       <c r="S87" t="n">
         <v>50</v>
@@ -10788,7 +10800,7 @@
       </c>
       <c r="AR87" t="inlineStr">
         <is>
-          <t>23940</t>
+          <t>23787</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr"/>
@@ -10799,14 +10811,14 @@
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>66543116</v>
+        <v>66542953</v>
       </c>
       <c r="B88" t="n">
         <v>89406</v>
@@ -10846,10 +10858,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>611218.5552736644</v>
+        <v>611596.6125652546</v>
       </c>
       <c r="R88" t="n">
-        <v>7291007.444166437</v>
+        <v>7290054.384588947</v>
       </c>
       <c r="S88" t="n">
         <v>50</v>
@@ -10905,7 +10917,7 @@
       </c>
       <c r="AR88" t="inlineStr">
         <is>
-          <t>23961</t>
+          <t>23807</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr"/>
@@ -10916,14 +10928,14 @@
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>66543120</v>
+        <v>66543104</v>
       </c>
       <c r="B89" t="n">
         <v>89410</v>
@@ -10963,10 +10975,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>611293.6787897786</v>
+        <v>611506.5689346949</v>
       </c>
       <c r="R89" t="n">
-        <v>7290899.499202399</v>
+        <v>7291058.956410483</v>
       </c>
       <c r="S89" t="n">
         <v>50</v>
@@ -11022,7 +11034,7 @@
       </c>
       <c r="AR89" t="inlineStr">
         <is>
-          <t>23965</t>
+          <t>23949</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr"/>
@@ -11033,17 +11045,17 @@
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>66542927</v>
+        <v>66543112</v>
       </c>
       <c r="B90" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11056,21 +11068,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11080,10 +11092,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>611290.0961338516</v>
+        <v>611218.1086652895</v>
       </c>
       <c r="R90" t="n">
-        <v>7290340.536280581</v>
+        <v>7291040.391264994</v>
       </c>
       <c r="S90" t="n">
         <v>50</v>
@@ -11139,7 +11151,7 @@
       </c>
       <c r="AR90" t="inlineStr">
         <is>
-          <t>23781</t>
+          <t>23957</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr"/>
@@ -11150,14 +11162,14 @@
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>66543092</v>
+        <v>66543136</v>
       </c>
       <c r="B91" t="n">
         <v>77506</v>
@@ -11197,10 +11209,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>610497.2804979683</v>
+        <v>611273.1871086054</v>
       </c>
       <c r="R91" t="n">
-        <v>7291507.074025737</v>
+        <v>7291098.96826453</v>
       </c>
       <c r="S91" t="n">
         <v>50</v>
@@ -11256,7 +11268,7 @@
       </c>
       <c r="AR91" t="inlineStr">
         <is>
-          <t>23937</t>
+          <t>23981</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr"/>
@@ -11267,17 +11279,17 @@
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>66542939</v>
+        <v>66543134</v>
       </c>
       <c r="B92" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11290,21 +11302,21 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11314,10 +11326,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>611313.6660955219</v>
+        <v>611360.277972525</v>
       </c>
       <c r="R92" t="n">
-        <v>7290285.805325296</v>
+        <v>7291172.379548516</v>
       </c>
       <c r="S92" t="n">
         <v>50</v>
@@ -11373,7 +11385,7 @@
       </c>
       <c r="AR92" t="inlineStr">
         <is>
-          <t>23793</t>
+          <t>23979</t>
         </is>
       </c>
       <c r="AT92" t="inlineStr"/>
@@ -11391,10 +11403,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>66543007</v>
+        <v>66543085</v>
       </c>
       <c r="B93" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11407,38 +11419,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>611343.1855082059</v>
+        <v>610461.2084786585</v>
       </c>
       <c r="R93" t="n">
-        <v>7290312.087140567</v>
+        <v>7291576.549829715</v>
       </c>
       <c r="S93" t="n">
         <v>50</v>
@@ -11494,7 +11502,7 @@
       </c>
       <c r="AR93" t="inlineStr">
         <is>
-          <t>23859</t>
+          <t>23930</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr"/>
@@ -11505,14 +11513,14 @@
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>66543101</v>
+        <v>66543132</v>
       </c>
       <c r="B94" t="n">
         <v>89406</v>
@@ -11552,10 +11560,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>611297.792140378</v>
+        <v>611593.9780841735</v>
       </c>
       <c r="R94" t="n">
-        <v>7290814.357735389</v>
+        <v>7291177.30084341</v>
       </c>
       <c r="S94" t="n">
         <v>50</v>
@@ -11611,7 +11619,7 @@
       </c>
       <c r="AR94" t="inlineStr">
         <is>
-          <t>23946</t>
+          <t>23977</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr"/>
@@ -11622,14 +11630,14 @@
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>66542951</v>
+        <v>66543088</v>
       </c>
       <c r="B95" t="n">
         <v>89388</v>
@@ -11662,21 +11670,17 @@
           <t>(Fr.) Krieglst.</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>611585.0352429696</v>
+        <v>610512.8215171279</v>
       </c>
       <c r="R95" t="n">
-        <v>7290172.23442466</v>
+        <v>7291521.265340573</v>
       </c>
       <c r="S95" t="n">
         <v>50</v>
@@ -11732,7 +11736,7 @@
       </c>
       <c r="AR95" t="inlineStr">
         <is>
-          <t>23805</t>
+          <t>23933</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr"/>
@@ -11743,17 +11747,17 @@
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>66542940</v>
+        <v>66543121</v>
       </c>
       <c r="B96" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11766,21 +11770,21 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11790,10 +11794,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>611313.6660955219</v>
+        <v>611323.8699177485</v>
       </c>
       <c r="R96" t="n">
-        <v>7290285.805325296</v>
+        <v>7290950.937844237</v>
       </c>
       <c r="S96" t="n">
         <v>50</v>
@@ -11849,7 +11853,7 @@
       </c>
       <c r="AR96" t="inlineStr">
         <is>
-          <t>23794</t>
+          <t>23966</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr"/>
@@ -11867,10 +11871,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>66542930</v>
+        <v>66542995</v>
       </c>
       <c r="B97" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11883,21 +11887,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11907,10 +11911,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>611342.8277565886</v>
+        <v>611503.2768470033</v>
       </c>
       <c r="R97" t="n">
-        <v>7290257.255932777</v>
+        <v>7290088.282440787</v>
       </c>
       <c r="S97" t="n">
         <v>50</v>
@@ -11966,7 +11970,7 @@
       </c>
       <c r="AR97" t="inlineStr">
         <is>
-          <t>23784</t>
+          <t>23848</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr"/>
@@ -11984,10 +11988,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>66542968</v>
+        <v>66543110</v>
       </c>
       <c r="B98" t="n">
-        <v>77588</v>
+        <v>89410</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -12000,21 +12004,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>864</v>
+        <v>5432</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -12024,10 +12028,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>611549.9282156557</v>
+        <v>611392.8775105731</v>
       </c>
       <c r="R98" t="n">
-        <v>7289863.785637801</v>
+        <v>7291193.417272106</v>
       </c>
       <c r="S98" t="n">
         <v>50</v>
@@ -12083,7 +12087,7 @@
       </c>
       <c r="AR98" t="inlineStr">
         <is>
-          <t>23822</t>
+          <t>23955</t>
         </is>
       </c>
       <c r="AT98" t="inlineStr"/>
@@ -12094,17 +12098,17 @@
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>66543100</v>
+        <v>66543095</v>
       </c>
       <c r="B99" t="n">
-        <v>89410</v>
+        <v>78596</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12113,25 +12117,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12141,10 +12145,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>611297.792140378</v>
+        <v>611257.1225188905</v>
       </c>
       <c r="R99" t="n">
-        <v>7290814.357735389</v>
+        <v>7290638.882361396</v>
       </c>
       <c r="S99" t="n">
         <v>50</v>
@@ -12200,7 +12204,7 @@
       </c>
       <c r="AR99" t="inlineStr">
         <is>
-          <t>23945</t>
+          <t>23940</t>
         </is>
       </c>
       <c r="AT99" t="inlineStr"/>
@@ -12218,10 +12222,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>66543106</v>
+        <v>66543116</v>
       </c>
       <c r="B100" t="n">
-        <v>89338</v>
+        <v>89406</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12234,21 +12238,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>112</v>
+        <v>1204</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12258,10 +12262,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>611580.2451758102</v>
+        <v>611218.5552736644</v>
       </c>
       <c r="R100" t="n">
-        <v>7291095.184556241</v>
+        <v>7291007.444166437</v>
       </c>
       <c r="S100" t="n">
         <v>50</v>
@@ -12317,7 +12321,7 @@
       </c>
       <c r="AR100" t="inlineStr">
         <is>
-          <t>23951</t>
+          <t>23961</t>
         </is>
       </c>
       <c r="AT100" t="inlineStr"/>
@@ -12335,10 +12339,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>66543004</v>
+        <v>66543120</v>
       </c>
       <c r="B101" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12351,38 +12355,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>611327.8276871105</v>
+        <v>611293.6787897786</v>
       </c>
       <c r="R101" t="n">
-        <v>7290196.912068681</v>
+        <v>7290899.499202399</v>
       </c>
       <c r="S101" t="n">
         <v>50</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="AR101" t="inlineStr">
         <is>
-          <t>23856</t>
+          <t>23965</t>
         </is>
       </c>
       <c r="AT101" t="inlineStr"/>
@@ -12456,10 +12456,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>66542947</v>
+        <v>66542927</v>
       </c>
       <c r="B102" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12472,38 +12472,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>611559.5604738066</v>
+        <v>611290.0961338516</v>
       </c>
       <c r="R102" t="n">
-        <v>7290212.053890373</v>
+        <v>7290340.536280581</v>
       </c>
       <c r="S102" t="n">
         <v>50</v>
@@ -12559,7 +12555,7 @@
       </c>
       <c r="AR102" t="inlineStr">
         <is>
-          <t>23801</t>
+          <t>23781</t>
         </is>
       </c>
       <c r="AT102" t="inlineStr"/>
@@ -12577,10 +12573,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>66543086</v>
+        <v>66543092</v>
       </c>
       <c r="B103" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12593,21 +12589,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12617,10 +12613,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>610482.2732617665</v>
+        <v>610497.2804979683</v>
       </c>
       <c r="R103" t="n">
-        <v>7291564.998570025</v>
+        <v>7291507.074025737</v>
       </c>
       <c r="S103" t="n">
         <v>50</v>
@@ -12676,7 +12672,7 @@
       </c>
       <c r="AR103" t="inlineStr">
         <is>
-          <t>23931</t>
+          <t>23937</t>
         </is>
       </c>
       <c r="AT103" t="inlineStr"/>
@@ -12694,10 +12690,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>66543151</v>
+        <v>66542939</v>
       </c>
       <c r="B104" t="n">
-        <v>89388</v>
+        <v>89406</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12710,21 +12706,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1108</v>
+        <v>1204</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12734,10 +12730,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>609670.1606705183</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R104" t="n">
-        <v>7291587.523254925</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S104" t="n">
         <v>50</v>
@@ -12793,7 +12789,7 @@
       </c>
       <c r="AR104" t="inlineStr">
         <is>
-          <t>23996</t>
+          <t>23793</t>
         </is>
       </c>
       <c r="AT104" t="inlineStr"/>
@@ -12811,10 +12807,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>66543148</v>
+        <v>66543007</v>
       </c>
       <c r="B105" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12827,34 +12823,38 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="P105" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>609674.4042320828</v>
+        <v>611343.1855082059</v>
       </c>
       <c r="R105" t="n">
-        <v>7291584.389159444</v>
+        <v>7290312.087140567</v>
       </c>
       <c r="S105" t="n">
         <v>50</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="AR105" t="inlineStr">
         <is>
-          <t>23993</t>
+          <t>23859</t>
         </is>
       </c>
       <c r="AT105" t="inlineStr"/>
@@ -12928,10 +12928,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>66542964</v>
+        <v>66543101</v>
       </c>
       <c r="B106" t="n">
-        <v>81236</v>
+        <v>89406</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12944,38 +12944,34 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1312</v>
+        <v>1204</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>611572.281353937</v>
+        <v>611297.792140378</v>
       </c>
       <c r="R106" t="n">
-        <v>7289915.353663342</v>
+        <v>7290814.357735389</v>
       </c>
       <c r="S106" t="n">
         <v>50</v>
@@ -13031,7 +13027,7 @@
       </c>
       <c r="AR106" t="inlineStr">
         <is>
-          <t>23818</t>
+          <t>23946</t>
         </is>
       </c>
       <c r="AT106" t="inlineStr"/>
@@ -13042,17 +13038,17 @@
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>66543039</v>
+        <v>66542951</v>
       </c>
       <c r="B107" t="n">
-        <v>89410</v>
+        <v>89388</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -13065,34 +13061,38 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="P107" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>609598.0279233219</v>
+        <v>611585.0352429696</v>
       </c>
       <c r="R107" t="n">
-        <v>7291380.441301609</v>
+        <v>7290172.23442466</v>
       </c>
       <c r="S107" t="n">
         <v>50</v>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="AR107" t="inlineStr">
         <is>
-          <t>23890</t>
+          <t>23805</t>
         </is>
       </c>
       <c r="AT107" t="inlineStr"/>
@@ -13166,10 +13166,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>66542950</v>
+        <v>66542940</v>
       </c>
       <c r="B108" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13182,21 +13182,21 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13206,10 +13206,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>611585.0352429696</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R108" t="n">
-        <v>7290172.23442466</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S108" t="n">
         <v>50</v>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="AR108" t="inlineStr">
         <is>
-          <t>23804</t>
+          <t>23794</t>
         </is>
       </c>
       <c r="AT108" t="inlineStr"/>
@@ -13283,10 +13283,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>66542932</v>
+        <v>66542930</v>
       </c>
       <c r="B109" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13299,21 +13299,21 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13323,10 +13323,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>611363.2407100884</v>
+        <v>611342.8277565886</v>
       </c>
       <c r="R109" t="n">
-        <v>7290241.557870357</v>
+        <v>7290257.255932777</v>
       </c>
       <c r="S109" t="n">
         <v>50</v>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="AR109" t="inlineStr">
         <is>
-          <t>23786</t>
+          <t>23784</t>
         </is>
       </c>
       <c r="AT109" t="inlineStr"/>
@@ -13400,10 +13400,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>66543107</v>
+        <v>66543100</v>
       </c>
       <c r="B110" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13416,21 +13416,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13440,10 +13440,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>611573.3882970915</v>
+        <v>611297.792140378</v>
       </c>
       <c r="R110" t="n">
-        <v>7291155.07748652</v>
+        <v>7290814.357735389</v>
       </c>
       <c r="S110" t="n">
         <v>50</v>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="AR110" t="inlineStr">
         <is>
-          <t>23952</t>
+          <t>23945</t>
         </is>
       </c>
       <c r="AT110" t="inlineStr"/>
@@ -13517,10 +13517,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>66543082</v>
+        <v>66543106</v>
       </c>
       <c r="B111" t="n">
-        <v>77506</v>
+        <v>89338</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13533,21 +13533,21 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6425</v>
+        <v>112</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13557,10 +13557,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>610436.0116408257</v>
+        <v>611580.2451758102</v>
       </c>
       <c r="R111" t="n">
-        <v>7291599.065801032</v>
+        <v>7291095.184556241</v>
       </c>
       <c r="S111" t="n">
         <v>50</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="AR111" t="inlineStr">
         <is>
-          <t>23928</t>
+          <t>23951</t>
         </is>
       </c>
       <c r="AT111" t="inlineStr"/>
@@ -13634,10 +13634,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>66542937</v>
+        <v>66543004</v>
       </c>
       <c r="B112" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13650,26 +13650,26 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P112" t="inlineStr">
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>611313.6660955219</v>
+        <v>611327.8276871105</v>
       </c>
       <c r="R112" t="n">
-        <v>7290285.805325296</v>
+        <v>7290196.912068681</v>
       </c>
       <c r="S112" t="n">
         <v>50</v>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="AR112" t="inlineStr">
         <is>
-          <t>23791</t>
+          <t>23856</t>
         </is>
       </c>
       <c r="AT112" t="inlineStr"/>
@@ -13755,10 +13755,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>66543032</v>
+        <v>66542947</v>
       </c>
       <c r="B113" t="n">
-        <v>89742</v>
+        <v>77506</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13767,38 +13767,42 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1506</v>
+        <v>6425</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ostticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Skeletocutis odora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Sacc.) Ginns</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P113" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>609627.9790624094</v>
+        <v>611559.5604738066</v>
       </c>
       <c r="R113" t="n">
-        <v>7291373.753099522</v>
+        <v>7290212.053890373</v>
       </c>
       <c r="S113" t="n">
         <v>50</v>
@@ -13854,7 +13858,7 @@
       </c>
       <c r="AR113" t="inlineStr">
         <is>
-          <t>23883</t>
+          <t>23801</t>
         </is>
       </c>
       <c r="AT113" t="inlineStr"/>
@@ -13872,10 +13876,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>66542946</v>
+        <v>66543086</v>
       </c>
       <c r="B114" t="n">
-        <v>89392</v>
+        <v>89410</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13888,21 +13892,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13912,10 +13916,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>611559.5604738066</v>
+        <v>610482.2732617665</v>
       </c>
       <c r="R114" t="n">
-        <v>7290212.053890373</v>
+        <v>7291564.998570025</v>
       </c>
       <c r="S114" t="n">
         <v>50</v>
@@ -13971,7 +13975,7 @@
       </c>
       <c r="AR114" t="inlineStr">
         <is>
-          <t>23800</t>
+          <t>23931</t>
         </is>
       </c>
       <c r="AT114" t="inlineStr"/>
@@ -13982,17 +13986,17 @@
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>66542948</v>
+        <v>66542950</v>
       </c>
       <c r="B115" t="n">
-        <v>89388</v>
+        <v>89406</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -14005,21 +14009,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1108</v>
+        <v>1204</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -14029,10 +14033,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>611559.5604738066</v>
+        <v>611585.0352429696</v>
       </c>
       <c r="R115" t="n">
-        <v>7290212.053890373</v>
+        <v>7290172.23442466</v>
       </c>
       <c r="S115" t="n">
         <v>50</v>
@@ -14088,7 +14092,7 @@
       </c>
       <c r="AR115" t="inlineStr">
         <is>
-          <t>23802</t>
+          <t>23804</t>
         </is>
       </c>
       <c r="AT115" t="inlineStr"/>
@@ -14106,10 +14110,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>66543122</v>
+        <v>66542932</v>
       </c>
       <c r="B116" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14122,21 +14126,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14146,10 +14150,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>611323.8699177485</v>
+        <v>611363.2407100884</v>
       </c>
       <c r="R116" t="n">
-        <v>7290950.937844237</v>
+        <v>7290241.557870357</v>
       </c>
       <c r="S116" t="n">
         <v>50</v>
@@ -14205,7 +14209,7 @@
       </c>
       <c r="AR116" t="inlineStr">
         <is>
-          <t>23967</t>
+          <t>23786</t>
         </is>
       </c>
       <c r="AT116" t="inlineStr"/>
@@ -14223,10 +14227,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>66543096</v>
+        <v>66543107</v>
       </c>
       <c r="B117" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14239,21 +14243,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14263,10 +14267,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>611257.1225188905</v>
+        <v>611573.3882970915</v>
       </c>
       <c r="R117" t="n">
-        <v>7290638.882361396</v>
+        <v>7291155.07748652</v>
       </c>
       <c r="S117" t="n">
         <v>50</v>
@@ -14322,7 +14326,7 @@
       </c>
       <c r="AR117" t="inlineStr">
         <is>
-          <t>23941</t>
+          <t>23952</t>
         </is>
       </c>
       <c r="AT117" t="inlineStr"/>
@@ -14340,10 +14344,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>66542967</v>
+        <v>66543082</v>
       </c>
       <c r="B118" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14356,21 +14360,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14380,10 +14384,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>611571.5251276373</v>
+        <v>610436.0116408257</v>
       </c>
       <c r="R118" t="n">
-        <v>7289892.240202619</v>
+        <v>7291599.065801032</v>
       </c>
       <c r="S118" t="n">
         <v>50</v>
@@ -14439,7 +14443,7 @@
       </c>
       <c r="AR118" t="inlineStr">
         <is>
-          <t>23821</t>
+          <t>23928</t>
         </is>
       </c>
       <c r="AT118" t="inlineStr"/>
@@ -14450,17 +14454,17 @@
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>66542981</v>
+        <v>66542937</v>
       </c>
       <c r="B119" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14473,21 +14477,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -14501,10 +14505,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>611509.4088960965</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R119" t="n">
-        <v>7289449.55362201</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S119" t="n">
         <v>50</v>
@@ -14560,7 +14564,7 @@
       </c>
       <c r="AR119" t="inlineStr">
         <is>
-          <t>23834</t>
+          <t>23791</t>
         </is>
       </c>
       <c r="AT119" t="inlineStr"/>
@@ -14578,10 +14582,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>66542955</v>
+        <v>66542946</v>
       </c>
       <c r="B120" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14594,21 +14598,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14618,10 +14622,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>611596.6125652546</v>
+        <v>611559.5604738066</v>
       </c>
       <c r="R120" t="n">
-        <v>7290054.384588947</v>
+        <v>7290212.053890373</v>
       </c>
       <c r="S120" t="n">
         <v>50</v>
@@ -14677,7 +14681,7 @@
       </c>
       <c r="AR120" t="inlineStr">
         <is>
-          <t>23809</t>
+          <t>23800</t>
         </is>
       </c>
       <c r="AT120" t="inlineStr"/>
@@ -14695,10 +14699,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>66542941</v>
+        <v>66542948</v>
       </c>
       <c r="B121" t="n">
-        <v>78603</v>
+        <v>89388</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14707,25 +14711,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6464</v>
+        <v>1108</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14735,10 +14739,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>611313.6660955219</v>
+        <v>611559.5604738066</v>
       </c>
       <c r="R121" t="n">
-        <v>7290285.805325296</v>
+        <v>7290212.053890373</v>
       </c>
       <c r="S121" t="n">
         <v>50</v>
@@ -14794,7 +14798,7 @@
       </c>
       <c r="AR121" t="inlineStr">
         <is>
-          <t>23795</t>
+          <t>23802</t>
         </is>
       </c>
       <c r="AT121" t="inlineStr"/>
@@ -14812,7 +14816,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>66543098</v>
+        <v>66543122</v>
       </c>
       <c r="B122" t="n">
         <v>89406</v>
@@ -14852,10 +14856,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>611267.7590055199</v>
+        <v>611323.8699177485</v>
       </c>
       <c r="R122" t="n">
-        <v>7290748.087856184</v>
+        <v>7290950.937844237</v>
       </c>
       <c r="S122" t="n">
         <v>50</v>
@@ -14911,7 +14915,7 @@
       </c>
       <c r="AR122" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>23967</t>
         </is>
       </c>
       <c r="AT122" t="inlineStr"/>
@@ -14922,17 +14926,17 @@
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>66543135</v>
+        <v>66543096</v>
       </c>
       <c r="B123" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14945,21 +14949,21 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14969,10 +14973,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>611273.1871086054</v>
+        <v>611257.1225188905</v>
       </c>
       <c r="R123" t="n">
-        <v>7291098.96826453</v>
+        <v>7290638.882361396</v>
       </c>
       <c r="S123" t="n">
         <v>50</v>
@@ -15028,7 +15032,7 @@
       </c>
       <c r="AR123" t="inlineStr">
         <is>
-          <t>23980</t>
+          <t>23941</t>
         </is>
       </c>
       <c r="AT123" t="inlineStr"/>
@@ -15039,17 +15043,17 @@
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>66543081</v>
+        <v>66542955</v>
       </c>
       <c r="B124" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -15062,21 +15066,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -15086,10 +15090,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>610436.0116408257</v>
+        <v>611596.6125652546</v>
       </c>
       <c r="R124" t="n">
-        <v>7291599.065801032</v>
+        <v>7290054.384588947</v>
       </c>
       <c r="S124" t="n">
         <v>50</v>
@@ -15145,7 +15149,7 @@
       </c>
       <c r="AR124" t="inlineStr">
         <is>
-          <t>23927</t>
+          <t>23809</t>
         </is>
       </c>
       <c r="AT124" t="inlineStr"/>
@@ -15156,17 +15160,17 @@
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>66543117</v>
+        <v>66542941</v>
       </c>
       <c r="B125" t="n">
-        <v>89388</v>
+        <v>78603</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15175,25 +15179,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1108</v>
+        <v>6464</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -15203,10 +15207,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>611202.3215015952</v>
+        <v>611313.6660955219</v>
       </c>
       <c r="R125" t="n">
-        <v>7290947.068842361</v>
+        <v>7290285.805325296</v>
       </c>
       <c r="S125" t="n">
         <v>50</v>
@@ -15262,7 +15266,7 @@
       </c>
       <c r="AR125" t="inlineStr">
         <is>
-          <t>23962</t>
+          <t>23795</t>
         </is>
       </c>
       <c r="AT125" t="inlineStr"/>
@@ -15273,17 +15277,17 @@
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>66542952</v>
+        <v>66543098</v>
       </c>
       <c r="B126" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15296,38 +15300,34 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>611585.0352429696</v>
+        <v>611267.7590055199</v>
       </c>
       <c r="R126" t="n">
-        <v>7290172.23442466</v>
+        <v>7290748.087856184</v>
       </c>
       <c r="S126" t="n">
         <v>50</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="AR126" t="inlineStr">
         <is>
-          <t>23806</t>
+          <t>23943</t>
         </is>
       </c>
       <c r="AT126" t="inlineStr"/>
@@ -15394,17 +15394,17 @@
       </c>
       <c r="AX126" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>66542991</v>
+        <v>66543135</v>
       </c>
       <c r="B127" t="n">
-        <v>89406</v>
+        <v>81236</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15417,38 +15417,34 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1204</v>
+        <v>1312</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>611632.3046027673</v>
+        <v>611273.1871086054</v>
       </c>
       <c r="R127" t="n">
-        <v>7289899.951932219</v>
+        <v>7291098.96826453</v>
       </c>
       <c r="S127" t="n">
         <v>50</v>
@@ -15504,7 +15500,7 @@
       </c>
       <c r="AR127" t="inlineStr">
         <is>
-          <t>23844</t>
+          <t>23980</t>
         </is>
       </c>
       <c r="AT127" t="inlineStr"/>
@@ -15522,10 +15518,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>66542926</v>
+        <v>66543081</v>
       </c>
       <c r="B128" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -15538,38 +15534,34 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>611272.4401506095</v>
+        <v>610436.0116408257</v>
       </c>
       <c r="R128" t="n">
-        <v>7290370.353719527</v>
+        <v>7291599.065801032</v>
       </c>
       <c r="S128" t="n">
         <v>50</v>
@@ -15625,7 +15617,7 @@
       </c>
       <c r="AR128" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>23927</t>
         </is>
       </c>
       <c r="AT128" t="inlineStr"/>
@@ -15636,17 +15628,17 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>66542954</v>
+        <v>66543117</v>
       </c>
       <c r="B129" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -15659,38 +15651,34 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>611596.6125652546</v>
+        <v>611202.3215015952</v>
       </c>
       <c r="R129" t="n">
-        <v>7290054.384588947</v>
+        <v>7290947.068842361</v>
       </c>
       <c r="S129" t="n">
         <v>50</v>
@@ -15746,7 +15734,7 @@
       </c>
       <c r="AR129" t="inlineStr">
         <is>
-          <t>23808</t>
+          <t>23962</t>
         </is>
       </c>
       <c r="AT129" t="inlineStr"/>
@@ -15757,17 +15745,17 @@
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>66543036</v>
+        <v>66542952</v>
       </c>
       <c r="B130" t="n">
-        <v>89449</v>
+        <v>77506</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -15780,34 +15768,38 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3277</v>
+        <v>6425</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P130" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>609598.0279233219</v>
+        <v>611585.0352429696</v>
       </c>
       <c r="R130" t="n">
-        <v>7291380.441301609</v>
+        <v>7290172.23442466</v>
       </c>
       <c r="S130" t="n">
         <v>50</v>
@@ -15863,7 +15855,7 @@
       </c>
       <c r="AR130" t="inlineStr">
         <is>
-          <t>23887</t>
+          <t>23806</t>
         </is>
       </c>
       <c r="AT130" t="inlineStr"/>
@@ -15881,7 +15873,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>66542999</v>
+        <v>66542991</v>
       </c>
       <c r="B131" t="n">
         <v>89406</v>
@@ -15914,17 +15906,21 @@
           <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="P131" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>611436.7084396144</v>
+        <v>611632.3046027673</v>
       </c>
       <c r="R131" t="n">
-        <v>7290134.346341823</v>
+        <v>7289899.951932219</v>
       </c>
       <c r="S131" t="n">
         <v>50</v>
@@ -15980,7 +15976,7 @@
       </c>
       <c r="AR131" t="inlineStr">
         <is>
-          <t>23852</t>
+          <t>23844</t>
         </is>
       </c>
       <c r="AT131" t="inlineStr"/>
@@ -15998,10 +15994,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>66542997</v>
+        <v>66542926</v>
       </c>
       <c r="B132" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -16014,34 +16010,38 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P132" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>611503.2768470033</v>
+        <v>611272.4401506095</v>
       </c>
       <c r="R132" t="n">
-        <v>7290088.282440787</v>
+        <v>7290370.353719527</v>
       </c>
       <c r="S132" t="n">
         <v>50</v>
@@ -16097,7 +16097,7 @@
       </c>
       <c r="AR132" t="inlineStr">
         <is>
-          <t>23850</t>
+          <t>23780</t>
         </is>
       </c>
       <c r="AT132" t="inlineStr"/>
@@ -16115,10 +16115,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>66543028</v>
+        <v>66542954</v>
       </c>
       <c r="B133" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -16131,34 +16131,38 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>609627.9790624094</v>
+        <v>611596.6125652546</v>
       </c>
       <c r="R133" t="n">
-        <v>7291373.753099522</v>
+        <v>7290054.384588947</v>
       </c>
       <c r="S133" t="n">
         <v>50</v>
@@ -16214,7 +16218,7 @@
       </c>
       <c r="AR133" t="inlineStr">
         <is>
-          <t>23879</t>
+          <t>23808</t>
         </is>
       </c>
       <c r="AT133" t="inlineStr"/>
@@ -16232,10 +16236,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>66543072</v>
+        <v>66542999</v>
       </c>
       <c r="B134" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -16248,21 +16252,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -16272,10 +16276,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>610164.7173314244</v>
+        <v>611436.7084396144</v>
       </c>
       <c r="R134" t="n">
-        <v>7291607.628771361</v>
+        <v>7290134.346341823</v>
       </c>
       <c r="S134" t="n">
         <v>50</v>
@@ -16331,7 +16335,7 @@
       </c>
       <c r="AR134" t="inlineStr">
         <is>
-          <t>23920</t>
+          <t>23852</t>
         </is>
       </c>
       <c r="AT134" t="inlineStr"/>
@@ -16342,17 +16346,17 @@
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>66543150</v>
+        <v>66542997</v>
       </c>
       <c r="B135" t="n">
-        <v>90074</v>
+        <v>89410</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -16361,25 +16365,25 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -16389,10 +16393,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>609643.6035612399</v>
+        <v>611503.2768470033</v>
       </c>
       <c r="R135" t="n">
-        <v>7291635.122694188</v>
+        <v>7290088.282440787</v>
       </c>
       <c r="S135" t="n">
         <v>50</v>
@@ -16448,7 +16452,7 @@
       </c>
       <c r="AR135" t="inlineStr">
         <is>
-          <t>23995</t>
+          <t>23850</t>
         </is>
       </c>
       <c r="AT135" t="inlineStr"/>
@@ -16466,7 +16470,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>66542943</v>
+        <v>66543072</v>
       </c>
       <c r="B136" t="n">
         <v>56395</v>
@@ -16506,10 +16510,10 @@
         </is>
       </c>
       <c r="Q136" t="n">
-        <v>611408.8145287165</v>
+        <v>610164.7173314244</v>
       </c>
       <c r="R136" t="n">
-        <v>7290258.156947029</v>
+        <v>7291607.628771361</v>
       </c>
       <c r="S136" t="n">
         <v>50</v>
@@ -16565,7 +16569,7 @@
       </c>
       <c r="AR136" t="inlineStr">
         <is>
-          <t>23797</t>
+          <t>23920</t>
         </is>
       </c>
       <c r="AT136" t="inlineStr"/>
@@ -16576,17 +16580,17 @@
       </c>
       <c r="AX136" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>66543103</v>
+        <v>66542943</v>
       </c>
       <c r="B137" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -16599,21 +16603,21 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr"/>
@@ -16623,10 +16627,10 @@
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>611284.9269147466</v>
+        <v>611408.8145287165</v>
       </c>
       <c r="R137" t="n">
-        <v>7290955.202561239</v>
+        <v>7290258.156947029</v>
       </c>
       <c r="S137" t="n">
         <v>50</v>
@@ -16682,7 +16686,7 @@
       </c>
       <c r="AR137" t="inlineStr">
         <is>
-          <t>23948</t>
+          <t>23797</t>
         </is>
       </c>
       <c r="AT137" t="inlineStr"/>
@@ -16693,17 +16697,17 @@
       </c>
       <c r="AX137" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>66543025</v>
+        <v>66543103</v>
       </c>
       <c r="B138" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -16716,38 +16720,34 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
           <t>Grannäs Ö, Ly lm</t>
         </is>
       </c>
       <c r="Q138" t="n">
-        <v>609688.9387038479</v>
+        <v>611284.9269147466</v>
       </c>
       <c r="R138" t="n">
-        <v>7291386.784908226</v>
+        <v>7290955.202561239</v>
       </c>
       <c r="S138" t="n">
         <v>50</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="AR138" t="inlineStr">
         <is>
-          <t>23876</t>
+          <t>23948</t>
         </is>
       </c>
       <c r="AT138" t="inlineStr"/>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="AX138" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY138" t="inlineStr"/>
